--- a/ky/downloads/data-excel/1.2.1.xlsx
+++ b/ky/downloads/data-excel/1.2.1.xlsx
@@ -840,11 +840,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -853,7 +851,7 @@
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
@@ -864,7 +862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>41</v>
       </c>
@@ -875,8 +873,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -934,8 +932,11 @@
       <c r="S4" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -993,8 +994,11 @@
       <c r="S5" s="25">
         <v>33.152856050161155</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="25">
+        <v>29.810232786618478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>64</v>
       </c>
@@ -1020,8 +1024,9 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1079,8 +1084,11 @@
       <c r="S7" s="37">
         <v>32.831913512166025</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="37">
+        <v>29.669466599025686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1138,8 +1146,11 @@
       <c r="S8" s="37">
         <v>33.509346380994529</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="37">
+        <v>29.964546620904322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>67</v>
       </c>
@@ -1165,7 +1176,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -1175,15 +1186,27 @@
       <c r="C10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="16">
+        <v>23.2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>22.6</v>
+      </c>
+      <c r="F10" s="16">
+        <v>21.9</v>
+      </c>
       <c r="G10" s="16">
         <v>23.6</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="16">
+        <v>30.7</v>
+      </c>
+      <c r="I10" s="16">
+        <v>35.4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>28.5</v>
+      </c>
       <c r="K10" s="16">
         <v>26.9</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="S10" s="37">
         <v>34.041194942162896</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="37">
+        <v>30.196132774743152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -1222,15 +1248,27 @@
       <c r="C11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="16">
+        <v>41.7</v>
+      </c>
+      <c r="E11" s="16">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F11" s="16">
+        <v>37.1</v>
+      </c>
       <c r="G11" s="16">
         <v>39.5</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="16">
+        <v>40.4</v>
+      </c>
+      <c r="I11" s="16">
+        <v>39.6</v>
+      </c>
+      <c r="J11" s="16">
+        <v>41.4</v>
+      </c>
       <c r="K11" s="16">
         <v>32.6</v>
       </c>
@@ -1258,8 +1296,11 @@
       <c r="S11" s="37">
         <v>32.636018013483323</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="37">
+        <v>29.586576623908091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1326,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -1343,8 +1384,11 @@
       <c r="S13" s="37">
         <v>40.271414365477746</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="37">
+        <v>36.679314997357302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -1402,8 +1446,11 @@
       <c r="S14" s="37">
         <v>31.568157010024336</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="37">
+        <v>27.761651579699627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -1461,8 +1508,11 @@
       <c r="S15" s="37">
         <v>30.277813022272248</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="37">
+        <v>26.945499612171261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1520,8 +1570,11 @@
       <c r="S16" s="37">
         <v>22.733608300917229</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="37">
+        <v>19.920707357966336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1600,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>8</v>
       </c>
@@ -1605,8 +1658,11 @@
       <c r="S18" s="37">
         <v>48.492370829119814</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="37">
+        <v>48.132487638243802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
@@ -1664,8 +1720,11 @@
       <c r="S19" s="37">
         <v>46.987664282528065</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="37">
+        <v>47.095468608697217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
@@ -1723,8 +1782,11 @@
       <c r="S20" s="37">
         <v>50.118899291215271</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="37">
+        <v>49.224436679851941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>11</v>
       </c>
@@ -1782,8 +1844,11 @@
       <c r="S21" s="37">
         <v>47.142900749295329</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="37">
+        <v>36.060409324309092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1841,8 +1906,11 @@
       <c r="S22" s="37">
         <v>47.199946558584017</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="37">
+        <v>36.438841751655779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>2</v>
       </c>
@@ -1900,8 +1968,11 @@
       <c r="S23" s="37">
         <v>47.082025761639336</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="37">
+        <v>35.670056408825062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
@@ -1959,8 +2030,11 @@
       <c r="S24" s="37">
         <v>31.240016364696597</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="37">
+        <v>30.852411825788565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -2018,8 +2092,11 @@
       <c r="S25" s="37">
         <v>31.228685777194666</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="37">
+        <v>30.330534800771165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
@@ -2077,8 +2154,11 @@
       <c r="S26" s="37">
         <v>31.252112297543153</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="37">
+        <v>31.403214482728419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>15</v>
       </c>
@@ -2136,8 +2216,11 @@
       <c r="S27" s="37">
         <v>42.049857693482664</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="37">
+        <v>38.094443042646382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -2195,8 +2278,11 @@
       <c r="S28" s="37">
         <v>42.689244289315013</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="37">
+        <v>38.158675127516169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -2254,8 +2340,11 @@
       <c r="S29" s="37">
         <v>41.380596558931735</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="37">
+        <v>38.024712001344874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>18</v>
       </c>
@@ -2313,8 +2402,11 @@
       <c r="S30" s="37">
         <v>19.945481087558658</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="37">
+        <v>20.396452079475392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
@@ -2372,8 +2464,11 @@
       <c r="S31" s="37">
         <v>20.799187962023481</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="37">
+        <v>20.655435559889604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2431,8 +2526,11 @@
       <c r="S32" s="37">
         <v>19.013188474520234</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="37">
+        <v>20.117912106064367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>21</v>
       </c>
@@ -2490,8 +2588,11 @@
       <c r="S33" s="37">
         <v>23.919779113642239</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="37">
+        <v>23.188885535955222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -2549,8 +2650,11 @@
       <c r="S34" s="37">
         <v>23.962040711070269</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="37">
+        <v>23.078628487453106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -2608,8 +2712,11 @@
       <c r="S35" s="37">
         <v>23.876854008981983</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="37">
+        <v>23.300729383023359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>24</v>
       </c>
@@ -2667,8 +2774,11 @@
       <c r="S36" s="37">
         <v>26.113584517813127</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="37">
+        <v>26.600808028614065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2726,8 +2836,11 @@
       <c r="S37" s="37">
         <v>25.651528441631889</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="37">
+        <v>26.440501693813694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>2</v>
       </c>
@@ -2785,8 +2898,11 @@
       <c r="S38" s="37">
         <v>26.620973515499056</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="37">
+        <v>26.779307280034676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>27</v>
       </c>
@@ -2844,8 +2960,11 @@
       <c r="S39" s="37">
         <v>35.676666099583812</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="37">
+        <v>32.389629740110649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
@@ -2903,8 +3022,11 @@
       <c r="S40" s="37">
         <v>34.026766685280904</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="37">
+        <v>31.71205247152805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>2</v>
       </c>
@@ -2962,8 +3084,11 @@
       <c r="S41" s="37">
         <v>37.792274390474752</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="37">
+        <v>33.231499210635427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>30</v>
       </c>
@@ -3021,8 +3146,11 @@
       <c r="S42" s="37">
         <v>26.602385500795538</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="37">
+        <v>13.872134221368512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -3080,8 +3208,11 @@
       <c r="S43" s="37">
         <v>25.585637135242425</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="37">
+        <v>14.562707317462859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
@@ -3139,8 +3270,11 @@
       <c r="S44" s="38">
         <v>27.750206810614948</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="38">
+        <v>13.080583219648313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -3157,7 +3291,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
